--- a/specifics/QM1-23-SoSe-Modulverlauf.xlsx
+++ b/specifics/QM1-23-SoSe-Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/statistik1/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F838A-1538-1E4C-81E1-DE34843A1F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEB227-37E3-9B46-9C8E-2BB968615E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Fallstudien</t>
   </si>
   <si>
-    <t>Fragen stellen</t>
-  </si>
-  <si>
     <t>Daten aufbereiten</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Rahmen</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -691,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>

--- a/specifics/QM1-23-SoSe-Modulverlauf.xlsx
+++ b/specifics/QM1-23-SoSe-Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/statistik1/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEB227-37E3-9B46-9C8E-2BB968615E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E462C-375B-8A40-AC2F-0AC277589D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Nr</t>
   </si>
@@ -130,25 +130,31 @@
     <t>Fallstudien</t>
   </si>
   <si>
-    <t>Daten aufbereiten</t>
-  </si>
-  <si>
-    <t>Punktmodelle</t>
-  </si>
-  <si>
-    <t>Ungewissheit quantifizieren</t>
-  </si>
-  <si>
-    <t>Geradenmodell</t>
-  </si>
-  <si>
-    <t>Antworten diskutieren</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Rahmen</t>
+  </si>
+  <si>
+    <t>Daten einlesen</t>
+  </si>
+  <si>
+    <t>Daten umformen</t>
+  </si>
+  <si>
+    <t>Punktmodelle 1</t>
+  </si>
+  <si>
+    <t>Modellgüte</t>
+  </si>
+  <si>
+    <t>Punktmodelle 2</t>
+  </si>
+  <si>
+    <t>Geradenmodelle 1</t>
+  </si>
+  <si>
+    <t>Geradenmodelle 2</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -555,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -566,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -577,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -605,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -616,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -627,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -641,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -652,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -663,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -677,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -691,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -705,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>

--- a/specifics/QM1-23-SoSe-Modulverlauf.xlsx
+++ b/specifics/QM1-23-SoSe-Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/statistik1/specifics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E462C-375B-8A40-AC2F-0AC277589D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4446FC35-0973-3B4A-AFBA-E22C0465DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Nr</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Geradenmodelle 2</t>
+  </si>
+  <si>
+    <t>Aufholwoche</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -611,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -622,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -633,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -647,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -658,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -697,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -722,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
